--- a/PMT_Gantt_Chart_V2_Actual_Duration.xlsx
+++ b/PMT_Gantt_Chart_V2_Actual_Duration.xlsx
@@ -1,43 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jord\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7590" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
+    <definedName name="Actual">(PeriodInActual*('Project Planner'!$F1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$F1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
-    <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
+    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$F1,'Project Planner'!$F1+'Project Planner'!$G1)*('Project Planner'!$F1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$F1+'Project Planner'!$G1*'Project Planner'!$H1)))+('Project Planner'!A$4='Project Planner'!$F1))*('Project Planner'!$H1&gt;0)</definedName>
+    <definedName name="period_selected">'Project Planner'!$I$2</definedName>
+    <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$F1,'Project Planner'!$F1+'Project Planner'!$G1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -212,11 +207,14 @@
   <si>
     <t>Deployment</t>
   </si>
+  <si>
+    <t>Deployment?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +547,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,6 +602,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -652,20 +665,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -689,7 +693,7 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -794,8 +798,8 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="-0.24994659260841701"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FF92D050"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -822,397 +826,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FF92D050"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="0.39994506668294322"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="0.39994506668294322"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="-0.24994659260841701"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="0.39994506668294322"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6" tint="-0.24994659260841701"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1508,32 +1121,34 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP18"/>
+  <dimension ref="B1:AQ18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="2" width="30.59765625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.59765625" style="4" customWidth="1"/>
-    <col min="8" max="17" width="8.3984375" style="1" customWidth="1"/>
-    <col min="18" max="20" width="3.19921875" style="1"/>
-    <col min="21" max="21" width="6.3984375" style="1" customWidth="1"/>
-    <col min="22" max="24" width="3.19921875" style="1"/>
-    <col min="25" max="25" width="7.3984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.59765625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.3984375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.59765625" customWidth="1"/>
-    <col min="34" max="34" width="6.796875" customWidth="1"/>
-    <col min="42" max="42" width="14.796875" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" style="4" customWidth="1"/>
+    <col min="9" max="18" width="8.3984375" style="1" customWidth="1"/>
+    <col min="19" max="21" width="3.19921875" style="1"/>
+    <col min="22" max="22" width="6.3984375" style="1" customWidth="1"/>
+    <col min="23" max="25" width="3.19921875" style="1"/>
+    <col min="26" max="26" width="7.3984375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.3984375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.59765625" customWidth="1"/>
+    <col min="35" max="35" width="6.796875" customWidth="1"/>
+    <col min="43" max="43" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:43" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
@@ -1542,89 +1157,93 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="2:43" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>10</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="26" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="31" t="s">
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-    </row>
-    <row r="3" spans="2:42" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+    </row>
+    <row r="3" spans="2:43" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -1642,45 +1261,46 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="2:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>8</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -1690,8 +1310,9 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-    </row>
-    <row r="5" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1701,16 +1322,18 @@
       <c r="D5" s="7">
         <v>3.5</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
+      <c r="E5" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="R5"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -1720,8 +1343,9 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-    </row>
-    <row r="6" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1731,16 +1355,18 @@
       <c r="D6" s="7">
         <v>3.5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="R6"/>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -1750,8 +1376,9 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
-    </row>
-    <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1761,16 +1388,18 @@
       <c r="D7" s="7">
         <v>3.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -1780,8 +1409,9 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
-    </row>
-    <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1791,16 +1421,18 @@
       <c r="D8" s="7">
         <v>3.5</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
+      <c r="E8" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8"/>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -1810,8 +1442,9 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
-    </row>
-    <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1821,16 +1454,18 @@
       <c r="D9" s="7">
         <v>3.5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -1840,8 +1475,9 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-    </row>
-    <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1851,16 +1487,18 @@
       <c r="D10" s="7">
         <v>3.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10"/>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
@@ -1870,8 +1508,9 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
-    </row>
-    <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1881,16 +1520,18 @@
       <c r="D11" s="7">
         <v>3.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
@@ -1900,8 +1541,9 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
-    </row>
-    <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1911,16 +1553,18 @@
       <c r="D12" s="7">
         <v>3.5</v>
       </c>
-      <c r="E12" s="7">
-        <v>3</v>
+      <c r="E12" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12"/>
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
@@ -1930,8 +1574,9 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
-    </row>
-    <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1941,16 +1586,18 @@
       <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13"/>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -1960,8 +1607,9 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
-    </row>
-    <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1971,16 +1619,18 @@
       <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7">
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="R14"/>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
@@ -1990,8 +1640,9 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
-    </row>
-    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
@@ -2001,16 +1652,18 @@
       <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7">
         <v>8</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="R15"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -2020,8 +1673,9 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
-    </row>
-    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>26</v>
       </c>
@@ -2031,16 +1685,18 @@
       <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16"/>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -2050,8 +1706,9 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
-    </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>33</v>
       </c>
@@ -2061,16 +1718,18 @@
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7">
         <v>10</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="R17"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -2080,21 +1739,21 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
-    </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18" s="17" t="s">
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="Q18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="R18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -2103,77 +1762,79 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="13">
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:Q17">
-    <cfRule type="expression" dxfId="19" priority="1">
+  <conditionalFormatting sqref="I5:R17">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>H$4=period_selected</formula>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:R18">
-    <cfRule type="expression" dxfId="12" priority="2">
+  <conditionalFormatting sqref="B18:S18">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:Q4">
-    <cfRule type="expression" dxfId="11" priority="8">
-      <formula>H$4=period_selected</formula>
+  <conditionalFormatting sqref="I4:R4">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>I$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="912" yWindow="299" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="I2">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="K2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="Q2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="V2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="AA2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AI2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="H3:H4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:G2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2181,11 +1842,6 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
